--- a/storage/LISTA_1_RIFA_2025_GENERAL.xlsx
+++ b/storage/LISTA_1_RIFA_2025_GENERAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\navidad2025\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F444AA-486F-4A66-A37B-1EC80B340838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510FB120-0D86-4FF0-9A62-995FDC966A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5411,16 +5411,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>218376</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>113929</xdr:rowOff>
+      <xdr:rowOff>95701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5443,8 +5443,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9163050" y="1524000"/>
-          <a:ext cx="5590476" cy="2971429"/>
+          <a:off x="6797040" y="1965961"/>
+          <a:ext cx="4770120" cy="2335980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12697,7 +12697,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C63A2834-7CE2-4C64-9837-5FDE5C375F4B}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DISTRITOS">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C63A2834-7CE2-4C64-9837-5FDE5C375F4B}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DISTRITOS">
   <location ref="B6:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -30555,7 +30555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2EA950-253B-49FB-B421-7FDFB9D890E4}">
   <dimension ref="A1:I783"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -52749,8 +52749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C37D64-D9F2-4011-978E-65126AD663B2}">
   <dimension ref="B6:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
